--- a/tools/dora/dora.xlsx
+++ b/tools/dora/dora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/dora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BF4421-B422-7046-A951-B1176CD6FBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BA879-D714-1B42-BC06-9C797A8E0C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" activeTab="1" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -2282,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE7C01F-A348-CC42-867E-C3FA7C84D7D7}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="241" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A13" zoomScale="241" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2428,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B35FE3-E2E1-6544-BD94-781CE4F49196}">
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" zoomScale="225" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2484,9 +2484,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
-        <v>5</v>
-      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2761,9 +2759,7 @@
       <c r="B23" s="6">
         <v>3</v>
       </c>
-      <c r="C23" s="7">
-        <v>6</v>
-      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
         <v>41</v>
       </c>
@@ -3046,9 +3042,7 @@
       <c r="B42" s="6">
         <v>3</v>
       </c>
-      <c r="C42" s="7">
-        <v>7</v>
-      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
         <v>79</v>
       </c>
@@ -3134,9 +3128,7 @@
       <c r="B48" s="6">
         <v>3</v>
       </c>
-      <c r="C48" s="7">
-        <v>8</v>
-      </c>
+      <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
         <v>90</v>
       </c>
@@ -3254,9 +3246,7 @@
       <c r="B56" s="6">
         <v>3</v>
       </c>
-      <c r="C56" s="7">
-        <v>9</v>
-      </c>
+      <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
         <v>106</v>
       </c>
@@ -3505,9 +3495,7 @@
       <c r="B73" s="6">
         <v>3</v>
       </c>
-      <c r="C73" s="7">
-        <v>10</v>
-      </c>
+      <c r="C73" s="7"/>
       <c r="D73" s="6" t="s">
         <v>138</v>
       </c>
@@ -3593,9 +3581,7 @@
       <c r="B79" s="6">
         <v>3</v>
       </c>
-      <c r="C79" s="7">
-        <v>11</v>
-      </c>
+      <c r="C79" s="7"/>
       <c r="D79" s="6" t="s">
         <v>149</v>
       </c>
@@ -3887,9 +3873,7 @@
       <c r="B99" s="6">
         <v>3</v>
       </c>
-      <c r="C99" s="7">
-        <v>12</v>
-      </c>
+      <c r="C99" s="7"/>
       <c r="D99" s="6" t="s">
         <v>187</v>
       </c>
@@ -4119,9 +4103,7 @@
       <c r="B115" s="6">
         <v>3</v>
       </c>
-      <c r="C115" s="7">
-        <v>13</v>
-      </c>
+      <c r="C115" s="7"/>
       <c r="D115" s="6" t="s">
         <v>216</v>
       </c>
@@ -4310,9 +4292,7 @@
       <c r="B128" s="6">
         <v>3</v>
       </c>
-      <c r="C128" s="7">
-        <v>14</v>
-      </c>
+      <c r="C128" s="7"/>
       <c r="D128" s="6" t="s">
         <v>240</v>
       </c>
@@ -4370,9 +4350,7 @@
       <c r="B132" s="6">
         <v>3</v>
       </c>
-      <c r="C132" s="7">
-        <v>16</v>
-      </c>
+      <c r="C132" s="7"/>
       <c r="D132" s="6" t="s">
         <v>248</v>
       </c>
@@ -4568,9 +4546,7 @@
       <c r="B146" s="6">
         <v>2</v>
       </c>
-      <c r="C146" s="7">
-        <v>17</v>
-      </c>
+      <c r="C146" s="7"/>
       <c r="D146" s="7" t="s">
         <v>273</v>
       </c>
@@ -4718,9 +4694,7 @@
       <c r="B156" s="6">
         <v>2</v>
       </c>
-      <c r="C156" s="7">
-        <v>18</v>
-      </c>
+      <c r="C156" s="7"/>
       <c r="D156" s="6" t="s">
         <v>293</v>
       </c>
@@ -4853,9 +4827,7 @@
       <c r="B165" s="6">
         <v>2</v>
       </c>
-      <c r="C165" s="7">
-        <v>19</v>
-      </c>
+      <c r="C165" s="7"/>
       <c r="D165" s="7" t="s">
         <v>311</v>
       </c>
@@ -5088,9 +5060,7 @@
       <c r="B182" s="6">
         <v>2</v>
       </c>
-      <c r="C182" s="7">
-        <v>23</v>
-      </c>
+      <c r="C182" s="7"/>
       <c r="D182" s="7" t="s">
         <v>337</v>
       </c>
@@ -5129,9 +5099,7 @@
       <c r="B185" s="6">
         <v>2</v>
       </c>
-      <c r="C185" s="7">
-        <v>24</v>
-      </c>
+      <c r="C185" s="7"/>
       <c r="D185" s="7" t="s">
         <v>342</v>
       </c>
@@ -5236,9 +5204,7 @@
       <c r="B192" s="6">
         <v>2</v>
       </c>
-      <c r="C192" s="7">
-        <v>25</v>
-      </c>
+      <c r="C192" s="7"/>
       <c r="D192" s="7" t="s">
         <v>585</v>
       </c>
@@ -5296,9 +5262,7 @@
       <c r="B196" s="6">
         <v>2</v>
       </c>
-      <c r="C196" s="7">
-        <v>26</v>
-      </c>
+      <c r="C196" s="7"/>
       <c r="D196" s="7" t="s">
         <v>363</v>
       </c>
@@ -5509,9 +5473,7 @@
       <c r="B211" s="6">
         <v>2</v>
       </c>
-      <c r="C211" s="7">
-        <v>27</v>
-      </c>
+      <c r="C211" s="7"/>
       <c r="D211" s="7" t="s">
         <v>387</v>
       </c>
@@ -5715,9 +5677,7 @@
       <c r="B225" s="6">
         <v>3</v>
       </c>
-      <c r="C225" s="7">
-        <v>28</v>
-      </c>
+      <c r="C225" s="7"/>
       <c r="D225" s="7" t="s">
         <v>413</v>
       </c>
@@ -6201,9 +6161,7 @@
       <c r="B259" s="6">
         <v>3</v>
       </c>
-      <c r="C259" s="7">
-        <v>29</v>
-      </c>
+      <c r="C259" s="7"/>
       <c r="D259" s="7" t="s">
         <v>472</v>
       </c>
@@ -6333,9 +6291,7 @@
       <c r="B269" s="6">
         <v>3</v>
       </c>
-      <c r="C269" s="7">
-        <v>30</v>
-      </c>
+      <c r="C269" s="7"/>
       <c r="D269" s="7" t="s">
         <v>486</v>
       </c>
@@ -6745,9 +6701,7 @@
       <c r="B297" s="6">
         <v>2</v>
       </c>
-      <c r="C297" s="7">
-        <v>45</v>
-      </c>
+      <c r="C297" s="7"/>
       <c r="D297" s="5" t="s">
         <v>539</v>
       </c>

--- a/tools/dora/dora.xlsx
+++ b/tools/dora/dora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/dora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A7E52-3471-CD41-9D46-87BF8EC9B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C774BF-29FB-3741-B824-799AAAE90EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" activeTab="1" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1341">
   <si>
     <t>Depth</t>
   </si>
@@ -4588,7 +4588,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4928,7 +4928,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="241" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4952,7 +4952,7 @@
         <v>558</v>
       </c>
       <c r="B2" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5073,8 +5073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B35FE3-E2E1-6544-BD94-781CE4F49196}">
   <dimension ref="A1:F699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10131,7 +10131,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>555</v>
       </c>
@@ -10518,9 +10518,7 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="5" t="s">
-        <v>555</v>
-      </c>
+      <c r="A397" s="5"/>
       <c r="B397" s="7">
         <v>2</v>
       </c>
@@ -10825,7 +10823,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="195" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" ht="225" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="7">
         <v>3</v>
@@ -12057,7 +12055,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
         <v>555</v>
       </c>
@@ -12176,7 +12174,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="7">
         <v>4</v>
@@ -12553,7 +12551,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="300" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" ht="314" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="7">
         <v>4</v>
@@ -13151,7 +13149,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="7">
         <v>4</v>
@@ -13759,7 +13757,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="117" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" ht="130" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="6">
         <v>3</v>
@@ -14262,7 +14260,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="6">
         <v>4</v>

--- a/tools/dora/dora.xlsx
+++ b/tools/dora/dora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/dora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A367CE7D-00C3-424D-A8DC-F52E37A5601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC8A73-CC8A-1646-B68F-743CC91B2C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" xr2:uid="{07E11555-D7C4-E248-B1CA-88155D1FBDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="2866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="2867">
   <si>
     <t>Depth</t>
   </si>
@@ -9656,6 +9656,9 @@
   </si>
   <si>
     <t>Legislativa Evropské Unie</t>
+  </si>
+  <si>
+    <t>library_publication_date</t>
   </si>
 </sst>
 </file>
@@ -9945,9 +9948,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9965,15 +9965,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10305,21 +10308,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE7C01F-A348-CC42-867E-C3FA7C84D7D7}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.875" style="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>557</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>558</v>
       </c>
@@ -10335,192 +10338,200 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B3" s="54">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>2102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>2102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>2087</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>2099</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>2088</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B19" s="42" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>2093</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>2089</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>2099</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>2090</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B22" s="42" t="s">
         <v>2091</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>2858</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>2863</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>2859</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B24" s="42" t="s">
         <v>2864</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>2860</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>2865</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>2861</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>2863</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>2862</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B27" s="42" t="s">
         <v>2864</v>
       </c>
     </row>
@@ -10538,20 +10549,20 @@
       <selection pane="bottomLeft" activeCell="J669" sqref="J669"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="63.875" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="91.625" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="91.625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="63.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="91.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="91.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>554</v>
       </c>
@@ -10576,14 +10587,14 @@
       <c r="H1" s="6" t="s">
         <v>1339</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="6" t="s">
         <v>2103</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="6" t="s">
         <v>2104</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6">
         <v>1</v>
@@ -10597,12 +10608,12 @@
         <v>2100</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="45" t="s">
         <v>2105</v>
       </c>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>2</v>
@@ -10618,12 +10629,12 @@
       <c r="H3" s="10" t="s">
         <v>1340</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="47" t="s">
         <v>2106</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6">
         <v>2</v>
@@ -10639,12 +10650,12 @@
       <c r="H4" s="10" t="s">
         <v>1341</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="10" t="s">
         <v>2106</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>2</v>
@@ -10660,12 +10671,12 @@
       <c r="H5" s="10" t="s">
         <v>1342</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="10" t="s">
         <v>2107</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <v>2</v>
@@ -10681,12 +10692,12 @@
       <c r="H6" s="10" t="s">
         <v>1343</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="10" t="s">
         <v>2108</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>2</v>
@@ -10702,12 +10713,12 @@
       <c r="H7" s="10" t="s">
         <v>1344</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="10" t="s">
         <v>2109</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6">
         <v>2</v>
@@ -10723,12 +10734,12 @@
       <c r="H8" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="I8" s="47"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="10" t="s">
         <v>2110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <v>2</v>
@@ -10744,12 +10755,12 @@
       <c r="H9" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="I9" s="47"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="10" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>2</v>
@@ -10765,12 +10776,12 @@
       <c r="H10" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="I10" s="47"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="10" t="s">
         <v>2112</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>2</v>
@@ -10786,12 +10797,12 @@
       <c r="H11" s="10" t="s">
         <v>1348</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="10" t="s">
         <v>2113</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>2</v>
@@ -10807,12 +10818,12 @@
       <c r="H12" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="10" t="s">
         <v>2114</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>2</v>
@@ -10828,12 +10839,12 @@
       <c r="H13" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="10" t="s">
         <v>2115</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="285" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>2</v>
@@ -10849,12 +10860,12 @@
       <c r="H14" s="10" t="s">
         <v>1351</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="10" t="s">
         <v>2116</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <v>2</v>
@@ -10870,12 +10881,12 @@
       <c r="H15" s="10" t="s">
         <v>1352</v>
       </c>
-      <c r="I15" s="47"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="10" t="s">
         <v>2117</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>2</v>
@@ -10891,12 +10902,12 @@
       <c r="H16" s="10" t="s">
         <v>1353</v>
       </c>
-      <c r="I16" s="47"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="10" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <v>2</v>
@@ -10912,12 +10923,12 @@
       <c r="H17" s="10" t="s">
         <v>1354</v>
       </c>
-      <c r="I17" s="47"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="10" t="s">
         <v>2119</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6">
         <v>2</v>
@@ -10933,12 +10944,12 @@
       <c r="H18" s="10" t="s">
         <v>1355</v>
       </c>
-      <c r="I18" s="47"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="10" t="s">
         <v>2120</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <v>2</v>
@@ -10954,12 +10965,12 @@
       <c r="H19" s="10" t="s">
         <v>1356</v>
       </c>
-      <c r="I19" s="47"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="10" t="s">
         <v>2121</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>2</v>
@@ -10975,12 +10986,12 @@
       <c r="H20" s="10" t="s">
         <v>1357</v>
       </c>
-      <c r="I20" s="47"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="10" t="s">
         <v>2122</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>2</v>
@@ -10996,12 +11007,12 @@
       <c r="H21" s="10" t="s">
         <v>1358</v>
       </c>
-      <c r="I21" s="47"/>
+      <c r="I21" s="46"/>
       <c r="J21" s="10" t="s">
         <v>2123</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <v>2</v>
@@ -11017,12 +11028,12 @@
       <c r="H22" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="I22" s="47"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="10" t="s">
         <v>2124</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="270" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6">
         <v>2</v>
@@ -11038,12 +11049,12 @@
       <c r="H23" s="10" t="s">
         <v>1360</v>
       </c>
-      <c r="I23" s="47"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="10" t="s">
         <v>2125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>2</v>
@@ -11059,12 +11070,12 @@
       <c r="H24" s="10" t="s">
         <v>1361</v>
       </c>
-      <c r="I24" s="47"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="10" t="s">
         <v>2126</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6">
         <v>2</v>
@@ -11080,12 +11091,12 @@
       <c r="H25" s="10" t="s">
         <v>1362</v>
       </c>
-      <c r="I25" s="47"/>
+      <c r="I25" s="46"/>
       <c r="J25" s="10" t="s">
         <v>2127</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>2</v>
@@ -11101,12 +11112,12 @@
       <c r="H26" s="10" t="s">
         <v>1363</v>
       </c>
-      <c r="I26" s="47"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="10" t="s">
         <v>2128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6">
         <v>2</v>
@@ -11122,12 +11133,12 @@
       <c r="H27" s="10" t="s">
         <v>1364</v>
       </c>
-      <c r="I27" s="47"/>
+      <c r="I27" s="46"/>
       <c r="J27" s="10" t="s">
         <v>2129</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>2</v>
@@ -11143,12 +11154,12 @@
       <c r="H28" s="10" t="s">
         <v>1365</v>
       </c>
-      <c r="I28" s="47"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="10" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6">
         <v>2</v>
@@ -11164,12 +11175,12 @@
       <c r="H29" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="I29" s="47"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="10" t="s">
         <v>2131</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6">
         <v>2</v>
@@ -11185,12 +11196,12 @@
       <c r="H30" s="10" t="s">
         <v>1367</v>
       </c>
-      <c r="I30" s="47"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="10" t="s">
         <v>2132</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6">
         <v>2</v>
@@ -11206,12 +11217,12 @@
       <c r="H31" s="10" t="s">
         <v>1368</v>
       </c>
-      <c r="I31" s="47"/>
+      <c r="I31" s="46"/>
       <c r="J31" s="10" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6">
         <v>2</v>
@@ -11227,12 +11238,12 @@
       <c r="H32" s="10" t="s">
         <v>1369</v>
       </c>
-      <c r="I32" s="47"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="10" t="s">
         <v>2134</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6">
         <v>2</v>
@@ -11248,12 +11259,12 @@
       <c r="H33" s="10" t="s">
         <v>1370</v>
       </c>
-      <c r="I33" s="47"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="10" t="s">
         <v>2135</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <v>2</v>
@@ -11269,12 +11280,12 @@
       <c r="H34" s="10" t="s">
         <v>1371</v>
       </c>
-      <c r="I34" s="47"/>
+      <c r="I34" s="46"/>
       <c r="J34" s="10" t="s">
         <v>2136</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6">
         <v>2</v>
@@ -11290,12 +11301,12 @@
       <c r="H35" s="10" t="s">
         <v>1372</v>
       </c>
-      <c r="I35" s="47"/>
+      <c r="I35" s="46"/>
       <c r="J35" s="10" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="328" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <v>2</v>
@@ -11311,12 +11322,12 @@
       <c r="H36" s="10" t="s">
         <v>1373</v>
       </c>
-      <c r="I36" s="47"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="10" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6">
         <v>2</v>
@@ -11332,12 +11343,12 @@
       <c r="H37" s="10" t="s">
         <v>1374</v>
       </c>
-      <c r="I37" s="47"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="10" t="s">
         <v>2139</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <v>2</v>
@@ -11353,12 +11364,12 @@
       <c r="H38" s="10" t="s">
         <v>1375</v>
       </c>
-      <c r="I38" s="47"/>
+      <c r="I38" s="46"/>
       <c r="J38" s="10" t="s">
         <v>2140</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="204" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6">
         <v>2</v>
@@ -11374,12 +11385,12 @@
       <c r="H39" s="10" t="s">
         <v>1376</v>
       </c>
-      <c r="I39" s="47"/>
+      <c r="I39" s="46"/>
       <c r="J39" s="10" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <v>2</v>
@@ -11395,12 +11406,12 @@
       <c r="H40" s="10" t="s">
         <v>1377</v>
       </c>
-      <c r="I40" s="47"/>
+      <c r="I40" s="46"/>
       <c r="J40" s="10" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <v>2</v>
@@ -11416,12 +11427,12 @@
       <c r="H41" s="10" t="s">
         <v>1378</v>
       </c>
-      <c r="I41" s="47"/>
+      <c r="I41" s="46"/>
       <c r="J41" s="10" t="s">
         <v>2143</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6">
         <v>2</v>
@@ -11437,12 +11448,12 @@
       <c r="H42" s="10" t="s">
         <v>1379</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="46"/>
       <c r="J42" s="10" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <v>2</v>
@@ -11458,12 +11469,12 @@
       <c r="H43" s="10" t="s">
         <v>1380</v>
       </c>
-      <c r="I43" s="47"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="10" t="s">
         <v>2145</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="285" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <v>2</v>
@@ -11479,12 +11490,12 @@
       <c r="H44" s="10" t="s">
         <v>1381</v>
       </c>
-      <c r="I44" s="47"/>
+      <c r="I44" s="46"/>
       <c r="J44" s="10" t="s">
         <v>2146</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6">
         <v>2</v>
@@ -11500,12 +11511,12 @@
       <c r="H45" s="10" t="s">
         <v>1382</v>
       </c>
-      <c r="I45" s="47"/>
+      <c r="I45" s="46"/>
       <c r="J45" s="10" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6">
         <v>2</v>
@@ -11521,12 +11532,12 @@
       <c r="H46" s="10" t="s">
         <v>1383</v>
       </c>
-      <c r="I46" s="47"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="10" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="6">
         <v>2</v>
@@ -11542,12 +11553,12 @@
       <c r="H47" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="I47" s="47"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="10" t="s">
         <v>2149</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6">
         <v>2</v>
@@ -11563,12 +11574,12 @@
       <c r="H48" s="10" t="s">
         <v>1385</v>
       </c>
-      <c r="I48" s="47"/>
+      <c r="I48" s="46"/>
       <c r="J48" s="10" t="s">
         <v>2150</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="6">
         <v>2</v>
@@ -11584,12 +11595,12 @@
       <c r="H49" s="10" t="s">
         <v>1386</v>
       </c>
-      <c r="I49" s="47"/>
+      <c r="I49" s="46"/>
       <c r="J49" s="10" t="s">
         <v>2151</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6">
         <v>2</v>
@@ -11605,12 +11616,12 @@
       <c r="H50" s="10" t="s">
         <v>1387</v>
       </c>
-      <c r="I50" s="47"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="10" t="s">
         <v>2152</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="6">
         <v>2</v>
@@ -11626,12 +11637,12 @@
       <c r="H51" s="10" t="s">
         <v>1388</v>
       </c>
-      <c r="I51" s="47"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="10" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6">
         <v>2</v>
@@ -11647,12 +11658,12 @@
       <c r="H52" s="10" t="s">
         <v>1389</v>
       </c>
-      <c r="I52" s="47"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="10" t="s">
         <v>2154</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="6">
         <v>2</v>
@@ -11668,12 +11679,12 @@
       <c r="H53" s="10" t="s">
         <v>1390</v>
       </c>
-      <c r="I53" s="47"/>
+      <c r="I53" s="46"/>
       <c r="J53" s="10" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="204" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6">
         <v>2</v>
@@ -11689,12 +11700,12 @@
       <c r="H54" s="10" t="s">
         <v>1391</v>
       </c>
-      <c r="I54" s="47"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="10" t="s">
         <v>2156</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="6">
         <v>2</v>
@@ -11710,12 +11721,12 @@
       <c r="H55" s="10" t="s">
         <v>1392</v>
       </c>
-      <c r="I55" s="47"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="10" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="6">
         <v>2</v>
@@ -11731,12 +11742,12 @@
       <c r="H56" s="10" t="s">
         <v>1393</v>
       </c>
-      <c r="I56" s="47"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="10" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="6">
         <v>2</v>
@@ -11752,12 +11763,12 @@
       <c r="H57" s="10" t="s">
         <v>1394</v>
       </c>
-      <c r="I57" s="47"/>
+      <c r="I57" s="46"/>
       <c r="J57" s="10" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="328" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="6">
         <v>2</v>
@@ -11773,12 +11784,12 @@
       <c r="H58" s="10" t="s">
         <v>1395</v>
       </c>
-      <c r="I58" s="47"/>
+      <c r="I58" s="46"/>
       <c r="J58" s="10" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="6">
         <v>2</v>
@@ -11794,12 +11805,12 @@
       <c r="H59" s="10" t="s">
         <v>1396</v>
       </c>
-      <c r="I59" s="47"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="10" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="6">
         <v>2</v>
@@ -11815,12 +11826,12 @@
       <c r="H60" s="10" t="s">
         <v>1397</v>
       </c>
-      <c r="I60" s="47"/>
+      <c r="I60" s="46"/>
       <c r="J60" s="10" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="6">
         <v>2</v>
@@ -11836,12 +11847,12 @@
       <c r="H61" s="10" t="s">
         <v>1398</v>
       </c>
-      <c r="I61" s="47"/>
+      <c r="I61" s="46"/>
       <c r="J61" s="10" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="6">
         <v>2</v>
@@ -11857,12 +11868,12 @@
       <c r="H62" s="10" t="s">
         <v>1399</v>
       </c>
-      <c r="I62" s="47"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="10" t="s">
         <v>2164</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="6">
         <v>2</v>
@@ -11878,12 +11889,12 @@
       <c r="H63" s="10" t="s">
         <v>1400</v>
       </c>
-      <c r="I63" s="47"/>
+      <c r="I63" s="46"/>
       <c r="J63" s="10" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="6">
         <v>2</v>
@@ -11899,12 +11910,12 @@
       <c r="H64" s="10" t="s">
         <v>1401</v>
       </c>
-      <c r="I64" s="47"/>
+      <c r="I64" s="46"/>
       <c r="J64" s="10" t="s">
         <v>2166</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="270" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="6">
         <v>2</v>
@@ -11920,12 +11931,12 @@
       <c r="H65" s="10" t="s">
         <v>1402</v>
       </c>
-      <c r="I65" s="47"/>
+      <c r="I65" s="46"/>
       <c r="J65" s="10" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="6">
         <v>2</v>
@@ -11941,12 +11952,12 @@
       <c r="H66" s="10" t="s">
         <v>1403</v>
       </c>
-      <c r="I66" s="47"/>
+      <c r="I66" s="46"/>
       <c r="J66" s="10" t="s">
         <v>2168</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="6">
         <v>2</v>
@@ -11962,12 +11973,12 @@
       <c r="H67" s="10" t="s">
         <v>1404</v>
       </c>
-      <c r="I67" s="47"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="10" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="6">
         <v>2</v>
@@ -11983,12 +11994,12 @@
       <c r="H68" s="10" t="s">
         <v>1405</v>
       </c>
-      <c r="I68" s="47"/>
+      <c r="I68" s="46"/>
       <c r="J68" s="10" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="6">
         <v>2</v>
@@ -12004,12 +12015,12 @@
       <c r="H69" s="10" t="s">
         <v>1406</v>
       </c>
-      <c r="I69" s="47"/>
+      <c r="I69" s="46"/>
       <c r="J69" s="10" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="6">
         <v>2</v>
@@ -12025,12 +12036,12 @@
       <c r="H70" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="I70" s="47"/>
+      <c r="I70" s="46"/>
       <c r="J70" s="10" t="s">
         <v>2172</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="6">
         <v>2</v>
@@ -12046,12 +12057,12 @@
       <c r="H71" s="10" t="s">
         <v>1408</v>
       </c>
-      <c r="I71" s="47"/>
+      <c r="I71" s="46"/>
       <c r="J71" s="10" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="6">
         <v>2</v>
@@ -12067,12 +12078,12 @@
       <c r="H72" s="10" t="s">
         <v>1409</v>
       </c>
-      <c r="I72" s="47"/>
+      <c r="I72" s="46"/>
       <c r="J72" s="10" t="s">
         <v>2174</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="6">
         <v>2</v>
@@ -12088,12 +12099,12 @@
       <c r="H73" s="10" t="s">
         <v>1410</v>
       </c>
-      <c r="I73" s="47"/>
+      <c r="I73" s="46"/>
       <c r="J73" s="10" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="6">
         <v>2</v>
@@ -12109,12 +12120,12 @@
       <c r="H74" s="10" t="s">
         <v>1411</v>
       </c>
-      <c r="I74" s="47"/>
+      <c r="I74" s="46"/>
       <c r="J74" s="10" t="s">
         <v>2176</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="6">
         <v>2</v>
@@ -12130,12 +12141,12 @@
       <c r="H75" s="10" t="s">
         <v>1412</v>
       </c>
-      <c r="I75" s="47"/>
+      <c r="I75" s="46"/>
       <c r="J75" s="10" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="6">
         <v>2</v>
@@ -12151,12 +12162,12 @@
       <c r="H76" s="10" t="s">
         <v>1413</v>
       </c>
-      <c r="I76" s="47"/>
+      <c r="I76" s="46"/>
       <c r="J76" s="10" t="s">
         <v>2178</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="6">
         <v>2</v>
@@ -12172,12 +12183,12 @@
       <c r="H77" s="10" t="s">
         <v>1414</v>
       </c>
-      <c r="I77" s="47"/>
+      <c r="I77" s="46"/>
       <c r="J77" s="10" t="s">
         <v>2179</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="6">
         <v>2</v>
@@ -12193,12 +12204,12 @@
       <c r="H78" s="10" t="s">
         <v>1415</v>
       </c>
-      <c r="I78" s="47"/>
+      <c r="I78" s="46"/>
       <c r="J78" s="10" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="6">
         <v>2</v>
@@ -12214,12 +12225,12 @@
       <c r="H79" s="10" t="s">
         <v>1416</v>
       </c>
-      <c r="I79" s="47"/>
+      <c r="I79" s="46"/>
       <c r="J79" s="10" t="s">
         <v>2181</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="6">
         <v>2</v>
@@ -12235,12 +12246,12 @@
       <c r="H80" s="10" t="s">
         <v>1417</v>
       </c>
-      <c r="I80" s="47"/>
+      <c r="I80" s="46"/>
       <c r="J80" s="10" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="342" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="6">
         <v>2</v>
@@ -12256,12 +12267,12 @@
       <c r="H81" s="10" t="s">
         <v>1418</v>
       </c>
-      <c r="I81" s="47"/>
+      <c r="I81" s="46"/>
       <c r="J81" s="10" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="6">
         <v>2</v>
@@ -12277,12 +12288,12 @@
       <c r="H82" s="10" t="s">
         <v>1419</v>
       </c>
-      <c r="I82" s="47"/>
+      <c r="I82" s="46"/>
       <c r="J82" s="10" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="300" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="6">
         <v>2</v>
@@ -12298,12 +12309,12 @@
       <c r="H83" s="10" t="s">
         <v>1420</v>
       </c>
-      <c r="I83" s="47"/>
+      <c r="I83" s="46"/>
       <c r="J83" s="10" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="6">
         <v>2</v>
@@ -12319,12 +12330,12 @@
       <c r="H84" s="10" t="s">
         <v>1421</v>
       </c>
-      <c r="I84" s="47"/>
+      <c r="I84" s="46"/>
       <c r="J84" s="10" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="306" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="342" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="6">
         <v>2</v>
@@ -12340,12 +12351,12 @@
       <c r="H85" s="10" t="s">
         <v>1422</v>
       </c>
-      <c r="I85" s="47"/>
+      <c r="I85" s="46"/>
       <c r="J85" s="10" t="s">
         <v>2187</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="6">
         <v>2</v>
@@ -12361,12 +12372,12 @@
       <c r="H86" s="10" t="s">
         <v>1423</v>
       </c>
-      <c r="I86" s="47"/>
+      <c r="I86" s="46"/>
       <c r="J86" s="10" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="6">
         <v>2</v>
@@ -12382,12 +12393,12 @@
       <c r="H87" s="10" t="s">
         <v>1424</v>
       </c>
-      <c r="I87" s="47"/>
+      <c r="I87" s="46"/>
       <c r="J87" s="10" t="s">
         <v>2189</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="6">
         <v>2</v>
@@ -12403,12 +12414,12 @@
       <c r="H88" s="10" t="s">
         <v>1425</v>
       </c>
-      <c r="I88" s="47"/>
+      <c r="I88" s="46"/>
       <c r="J88" s="10" t="s">
         <v>2190</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="6">
         <v>2</v>
@@ -12424,12 +12435,12 @@
       <c r="H89" s="10" t="s">
         <v>1426</v>
       </c>
-      <c r="I89" s="47"/>
+      <c r="I89" s="46"/>
       <c r="J89" s="10" t="s">
         <v>2191</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="6">
         <v>2</v>
@@ -12445,12 +12456,12 @@
       <c r="H90" s="10" t="s">
         <v>1427</v>
       </c>
-      <c r="I90" s="47"/>
+      <c r="I90" s="46"/>
       <c r="J90" s="10" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="6">
         <v>2</v>
@@ -12466,12 +12477,12 @@
       <c r="H91" s="10" t="s">
         <v>1428</v>
       </c>
-      <c r="I91" s="47"/>
+      <c r="I91" s="46"/>
       <c r="J91" s="10" t="s">
         <v>2193</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="6">
         <v>2</v>
@@ -12487,12 +12498,12 @@
       <c r="H92" s="10" t="s">
         <v>1429</v>
       </c>
-      <c r="I92" s="47"/>
+      <c r="I92" s="46"/>
       <c r="J92" s="10" t="s">
         <v>2194</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="6">
         <v>2</v>
@@ -12508,12 +12519,12 @@
       <c r="H93" s="10" t="s">
         <v>1430</v>
       </c>
-      <c r="I93" s="47"/>
+      <c r="I93" s="46"/>
       <c r="J93" s="10" t="s">
         <v>2195</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="6">
         <v>2</v>
@@ -12529,12 +12540,12 @@
       <c r="H94" s="10" t="s">
         <v>1431</v>
       </c>
-      <c r="I94" s="47"/>
+      <c r="I94" s="46"/>
       <c r="J94" s="10" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="6">
         <v>2</v>
@@ -12550,12 +12561,12 @@
       <c r="H95" s="10" t="s">
         <v>1432</v>
       </c>
-      <c r="I95" s="47"/>
+      <c r="I95" s="46"/>
       <c r="J95" s="10" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="6">
         <v>2</v>
@@ -12571,12 +12582,12 @@
       <c r="H96" s="10" t="s">
         <v>1433</v>
       </c>
-      <c r="I96" s="47"/>
+      <c r="I96" s="46"/>
       <c r="J96" s="10" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="6">
         <v>2</v>
@@ -12592,12 +12603,12 @@
       <c r="H97" s="10" t="s">
         <v>1434</v>
       </c>
-      <c r="I97" s="47"/>
+      <c r="I97" s="46"/>
       <c r="J97" s="10" t="s">
         <v>2199</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="6">
         <v>2</v>
@@ -12613,12 +12624,12 @@
       <c r="H98" s="10" t="s">
         <v>1435</v>
       </c>
-      <c r="I98" s="47"/>
+      <c r="I98" s="46"/>
       <c r="J98" s="10" t="s">
         <v>2200</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="6">
         <v>2</v>
@@ -12634,12 +12645,12 @@
       <c r="H99" s="10" t="s">
         <v>1436</v>
       </c>
-      <c r="I99" s="47"/>
+      <c r="I99" s="46"/>
       <c r="J99" s="10" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="255" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="6">
         <v>2</v>
@@ -12655,12 +12666,12 @@
       <c r="H100" s="10" t="s">
         <v>1437</v>
       </c>
-      <c r="I100" s="47"/>
+      <c r="I100" s="46"/>
       <c r="J100" s="10" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="6">
         <v>2</v>
@@ -12676,12 +12687,12 @@
       <c r="H101" s="10" t="s">
         <v>1438</v>
       </c>
-      <c r="I101" s="47"/>
+      <c r="I101" s="46"/>
       <c r="J101" s="10" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="6">
         <v>2</v>
@@ -12697,12 +12708,12 @@
       <c r="H102" s="10" t="s">
         <v>1439</v>
       </c>
-      <c r="I102" s="47"/>
+      <c r="I102" s="46"/>
       <c r="J102" s="10" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="6">
         <v>2</v>
@@ -12718,12 +12729,12 @@
       <c r="H103" s="10" t="s">
         <v>1440</v>
       </c>
-      <c r="I103" s="47"/>
+      <c r="I103" s="46"/>
       <c r="J103" s="10" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="6">
         <v>2</v>
@@ -12739,12 +12750,12 @@
       <c r="H104" s="10" t="s">
         <v>1441</v>
       </c>
-      <c r="I104" s="47"/>
+      <c r="I104" s="46"/>
       <c r="J104" s="10" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="6">
         <v>2</v>
@@ -12760,12 +12771,12 @@
       <c r="H105" s="10" t="s">
         <v>1442</v>
       </c>
-      <c r="I105" s="47"/>
+      <c r="I105" s="46"/>
       <c r="J105" s="10" t="s">
         <v>2207</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="255" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="6">
         <v>2</v>
@@ -12781,12 +12792,12 @@
       <c r="H106" s="10" t="s">
         <v>1443</v>
       </c>
-      <c r="I106" s="47"/>
+      <c r="I106" s="46"/>
       <c r="J106" s="10" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="6">
         <v>2</v>
@@ -12802,12 +12813,12 @@
       <c r="H107" s="10" t="s">
         <v>1444</v>
       </c>
-      <c r="I107" s="47"/>
+      <c r="I107" s="46"/>
       <c r="J107" s="10" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="6">
         <v>2</v>
@@ -12823,12 +12834,12 @@
       <c r="H108" s="10" t="s">
         <v>1445</v>
       </c>
-      <c r="I108" s="47"/>
+      <c r="I108" s="46"/>
       <c r="J108" s="10" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="6">
         <v>1</v>
@@ -12853,7 +12864,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="6">
         <v>2</v>
@@ -12878,7 +12889,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="342" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="6">
         <v>3</v>
@@ -12899,7 +12910,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="6">
         <v>3</v>
@@ -12920,7 +12931,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="6">
         <v>3</v>
@@ -12941,7 +12952,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="6">
         <v>2</v>
@@ -12966,7 +12977,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="357" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="398" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="6">
         <v>3</v>
@@ -12987,7 +12998,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="6">
         <v>3</v>
@@ -13008,7 +13019,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="6">
         <v>3</v>
@@ -13029,7 +13040,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="6">
         <v>3</v>
@@ -13044,11 +13055,11 @@
         <v>1454</v>
       </c>
       <c r="I118" s="7"/>
-      <c r="J118" s="49" t="s">
+      <c r="J118" s="48" t="s">
         <v>2223</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="6">
         <v>2</v>
@@ -13073,7 +13084,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="6">
         <v>3</v>
@@ -13094,7 +13105,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="6">
         <v>3</v>
@@ -13115,7 +13126,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="6">
         <v>3</v>
@@ -13136,7 +13147,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="6">
         <v>3</v>
@@ -13157,7 +13168,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="6">
         <v>3</v>
@@ -13178,7 +13189,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="6">
         <v>3</v>
@@ -13199,7 +13210,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="6">
         <v>3</v>
@@ -13220,7 +13231,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="6">
         <v>3</v>
@@ -13241,7 +13252,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="6">
         <v>3</v>
@@ -13262,7 +13273,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="6">
         <v>3</v>
@@ -13283,7 +13294,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="6">
         <v>3</v>
@@ -13304,7 +13315,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="6">
         <v>3</v>
@@ -13325,7 +13336,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="6">
         <v>3</v>
@@ -13346,7 +13357,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="6">
         <v>3</v>
@@ -13367,7 +13378,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="6">
         <v>3</v>
@@ -13388,7 +13399,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="6">
         <v>3</v>
@@ -13409,7 +13420,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="6">
         <v>3</v>
@@ -13430,7 +13441,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="6">
         <v>3</v>
@@ -13451,7 +13462,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="6">
         <v>3</v>
@@ -13472,7 +13483,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="6">
         <v>3</v>
@@ -13493,7 +13504,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="6">
         <v>3</v>
@@ -13514,7 +13525,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="6">
         <v>3</v>
@@ -13535,7 +13546,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="6">
         <v>3</v>
@@ -13556,7 +13567,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="6">
         <v>3</v>
@@ -13577,7 +13588,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="6">
         <v>3</v>
@@ -13598,7 +13609,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="6">
         <v>3</v>
@@ -13619,7 +13630,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="6">
         <v>3</v>
@@ -13640,7 +13651,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="6">
         <v>3</v>
@@ -13661,7 +13672,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="6">
         <v>3</v>
@@ -13682,7 +13693,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="6">
         <v>3</v>
@@ -13703,7 +13714,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="6">
         <v>3</v>
@@ -13724,7 +13735,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="6">
         <v>3</v>
@@ -13745,7 +13756,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="6">
         <v>3</v>
@@ -13766,7 +13777,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="6">
         <v>3</v>
@@ -13787,7 +13798,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="6">
         <v>3</v>
@@ -13808,7 +13819,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="6">
         <v>3</v>
@@ -13829,7 +13840,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="6">
         <v>3</v>
@@ -13850,7 +13861,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="6">
         <v>3</v>
@@ -13871,7 +13882,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="6">
         <v>3</v>
@@ -13892,7 +13903,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="6">
         <v>3</v>
@@ -13913,7 +13924,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="6">
         <v>3</v>
@@ -13934,7 +13945,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="6">
         <v>3</v>
@@ -13955,7 +13966,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="6">
         <v>3</v>
@@ -13976,7 +13987,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="6">
         <v>3</v>
@@ -13997,7 +14008,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="6">
         <v>3</v>
@@ -14018,7 +14029,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="6">
         <v>3</v>
@@ -14039,7 +14050,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="6">
         <v>3</v>
@@ -14060,7 +14071,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="6">
         <v>3</v>
@@ -14081,7 +14092,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="6">
         <v>3</v>
@@ -14102,7 +14113,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="6">
         <v>3</v>
@@ -14123,7 +14134,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="6">
         <v>3</v>
@@ -14144,7 +14155,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="6">
         <v>3</v>
@@ -14165,7 +14176,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="6">
         <v>3</v>
@@ -14186,7 +14197,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="6">
         <v>3</v>
@@ -14207,7 +14218,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="6">
         <v>3</v>
@@ -14228,7 +14239,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="6">
         <v>3</v>
@@ -14249,7 +14260,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="6">
         <v>3</v>
@@ -14270,7 +14281,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="6">
         <v>3</v>
@@ -14291,7 +14302,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="6">
         <v>3</v>
@@ -14312,7 +14323,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="6">
         <v>3</v>
@@ -14333,7 +14344,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="6">
         <v>3</v>
@@ -14354,7 +14365,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="6">
         <v>3</v>
@@ -14375,7 +14386,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="6">
         <v>3</v>
@@ -14396,7 +14407,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="6">
         <v>3</v>
@@ -14417,7 +14428,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="6">
         <v>3</v>
@@ -14438,7 +14449,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="6">
         <v>2</v>
@@ -14463,7 +14474,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="6">
         <v>3</v>
@@ -14480,11 +14491,11 @@
         <v>1463</v>
       </c>
       <c r="I186" s="7"/>
-      <c r="J186" s="50" t="s">
+      <c r="J186" s="49" t="s">
         <v>2293</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="6">
         <v>3</v>
@@ -14501,11 +14512,11 @@
         <v>1464</v>
       </c>
       <c r="I187" s="7"/>
-      <c r="J187" s="50" t="s">
+      <c r="J187" s="49" t="s">
         <v>2294</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="6">
         <v>3</v>
@@ -14522,11 +14533,11 @@
         <v>1465</v>
       </c>
       <c r="I188" s="7"/>
-      <c r="J188" s="50" t="s">
+      <c r="J188" s="49" t="s">
         <v>2295</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="6">
         <v>1</v>
@@ -14551,7 +14562,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="7">
         <v>2</v>
@@ -14570,7 +14581,7 @@
       </c>
       <c r="J190" s="13"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="7">
         <v>3</v>
@@ -14595,7 +14606,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>555</v>
       </c>
@@ -14618,7 +14629,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>555</v>
       </c>
@@ -14641,7 +14652,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="7">
         <v>4</v>
@@ -14660,7 +14671,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>555</v>
       </c>
@@ -14683,7 +14694,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>555</v>
       </c>
@@ -14706,7 +14717,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>555</v>
       </c>
@@ -14729,7 +14740,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>555</v>
       </c>
@@ -14752,7 +14763,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>555</v>
       </c>
@@ -14775,7 +14786,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>555</v>
       </c>
@@ -14798,7 +14809,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>555</v>
       </c>
@@ -14821,7 +14832,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>555</v>
       </c>
@@ -14844,7 +14855,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>555</v>
       </c>
@@ -14867,7 +14878,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>555</v>
       </c>
@@ -14890,7 +14901,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>555</v>
       </c>
@@ -14913,7 +14924,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>555</v>
       </c>
@@ -14936,7 +14947,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>555</v>
       </c>
@@ -14959,7 +14970,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>555</v>
       </c>
@@ -14982,7 +14993,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="7">
         <v>2</v>
@@ -15001,7 +15012,7 @@
       </c>
       <c r="J209" s="11"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="7">
         <v>3</v>
@@ -15026,7 +15037,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>555</v>
       </c>
@@ -15049,7 +15060,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>555</v>
       </c>
@@ -15072,7 +15083,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>555</v>
       </c>
@@ -15095,7 +15106,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>555</v>
       </c>
@@ -15118,7 +15129,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>555</v>
       </c>
@@ -15141,7 +15152,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>555</v>
       </c>
@@ -15164,7 +15175,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>555</v>
       </c>
@@ -15187,7 +15198,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>555</v>
       </c>
@@ -15210,7 +15221,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>555</v>
       </c>
@@ -15233,7 +15244,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>555</v>
       </c>
@@ -15256,7 +15267,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>555</v>
       </c>
@@ -15279,7 +15290,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>555</v>
       </c>
@@ -15302,7 +15313,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>555</v>
       </c>
@@ -15325,7 +15336,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>555</v>
       </c>
@@ -15348,7 +15359,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>555</v>
       </c>
@@ -15371,7 +15382,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>555</v>
       </c>
@@ -15394,7 +15405,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>555</v>
       </c>
@@ -15417,7 +15428,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>555</v>
       </c>
@@ -15440,7 +15451,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="7">
         <v>3</v>
@@ -15465,7 +15476,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>555</v>
       </c>
@@ -15486,7 +15497,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>555</v>
       </c>
@@ -15509,7 +15520,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>555</v>
       </c>
@@ -15532,7 +15543,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>555</v>
       </c>
@@ -15555,7 +15566,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>555</v>
       </c>
@@ -15578,7 +15589,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="7">
         <v>3</v>
@@ -15603,7 +15614,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>555</v>
       </c>
@@ -15626,7 +15637,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>555</v>
       </c>
@@ -15649,7 +15660,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>555</v>
       </c>
@@ -15672,7 +15683,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>555</v>
       </c>
@@ -15695,7 +15706,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>555</v>
       </c>
@@ -15718,7 +15729,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>555</v>
       </c>
@@ -15741,7 +15752,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>555</v>
       </c>
@@ -15764,7 +15775,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="7">
         <v>3</v>
@@ -15789,7 +15800,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>555</v>
       </c>
@@ -15812,7 +15823,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>555</v>
       </c>
@@ -15835,7 +15846,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>555</v>
       </c>
@@ -15858,7 +15869,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>555</v>
       </c>
@@ -15881,7 +15892,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>555</v>
       </c>
@@ -15904,7 +15915,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>555</v>
       </c>
@@ -15927,7 +15938,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>555</v>
       </c>
@@ -15950,7 +15961,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>555</v>
       </c>
@@ -15973,7 +15984,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>555</v>
       </c>
@@ -15996,7 +16007,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>555</v>
       </c>
@@ -16019,7 +16030,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>555</v>
       </c>
@@ -16042,7 +16053,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>555</v>
       </c>
@@ -16065,7 +16076,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
         <v>555</v>
       </c>
@@ -16088,7 +16099,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
         <v>555</v>
       </c>
@@ -16111,7 +16122,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
         <v>555</v>
       </c>
@@ -16132,7 +16143,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
         <v>555</v>
       </c>
@@ -16153,7 +16164,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="7">
         <v>3</v>
@@ -16178,7 +16189,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>555</v>
       </c>
@@ -16201,7 +16212,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
         <v>555</v>
       </c>
@@ -16222,7 +16233,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
         <v>555</v>
       </c>
@@ -16245,7 +16256,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
         <v>555</v>
       </c>
@@ -16268,7 +16279,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
         <v>555</v>
       </c>
@@ -16291,7 +16302,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="7">
         <v>3</v>
@@ -16316,7 +16327,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
         <v>555</v>
       </c>
@@ -16339,7 +16350,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
         <v>555</v>
       </c>
@@ -16362,7 +16373,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
         <v>555</v>
       </c>
@@ -16385,7 +16396,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
         <v>555</v>
       </c>
@@ -16408,7 +16419,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
         <v>555</v>
       </c>
@@ -16431,7 +16442,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
         <v>555</v>
       </c>
@@ -16454,7 +16465,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
         <v>555</v>
       </c>
@@ -16477,7 +16488,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
         <v>555</v>
       </c>
@@ -16500,7 +16511,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
         <v>555</v>
       </c>
@@ -16523,7 +16534,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
         <v>555</v>
       </c>
@@ -16546,7 +16557,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="7">
         <v>4</v>
@@ -16567,7 +16578,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
         <v>555</v>
       </c>
@@ -16590,7 +16601,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
         <v>555</v>
       </c>
@@ -16613,7 +16624,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
         <v>555</v>
       </c>
@@ -16634,7 +16645,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
         <v>555</v>
       </c>
@@ -16655,7 +16666,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
         <v>555</v>
       </c>
@@ -16678,7 +16689,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
         <v>555</v>
       </c>
@@ -16701,7 +16712,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
         <v>555</v>
       </c>
@@ -16724,7 +16735,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
         <v>555</v>
       </c>
@@ -16747,7 +16758,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="7">
         <v>4</v>
@@ -16768,7 +16779,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="7">
         <v>3</v>
@@ -16793,7 +16804,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
         <v>555</v>
       </c>
@@ -16816,7 +16827,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>555</v>
       </c>
@@ -16839,7 +16850,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
         <v>555</v>
       </c>
@@ -16862,7 +16873,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
         <v>555</v>
       </c>
@@ -16885,7 +16896,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
         <v>555</v>
       </c>
@@ -16908,7 +16919,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
         <v>555</v>
       </c>
@@ -16929,7 +16940,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
         <v>555</v>
       </c>
@@ -16950,7 +16961,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
         <v>555</v>
       </c>
@@ -16973,7 +16984,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
         <v>555</v>
       </c>
@@ -16996,7 +17007,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="7">
         <v>4</v>
@@ -17015,7 +17026,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
         <v>555</v>
       </c>
@@ -17038,7 +17049,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
         <v>555</v>
       </c>
@@ -17061,7 +17072,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
         <v>555</v>
       </c>
@@ -17084,7 +17095,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
         <v>555</v>
       </c>
@@ -17107,7 +17118,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>555</v>
       </c>
@@ -17130,7 +17141,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="7">
         <v>3</v>
@@ -17148,14 +17159,14 @@
       <c r="H303" s="10" t="s">
         <v>1590</v>
       </c>
-      <c r="I303" s="51" t="s">
+      <c r="I303" s="50" t="s">
         <v>2419</v>
       </c>
       <c r="J303" s="11" t="s">
         <v>2420</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
         <v>555</v>
       </c>
@@ -17178,7 +17189,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
         <v>555</v>
       </c>
@@ -17201,7 +17212,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
         <v>555</v>
       </c>
@@ -17222,7 +17233,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
         <v>555</v>
       </c>
@@ -17243,7 +17254,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
         <v>555</v>
       </c>
@@ -17266,7 +17277,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
         <v>555</v>
       </c>
@@ -17289,7 +17300,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>555</v>
       </c>
@@ -17312,7 +17323,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
         <v>555</v>
       </c>
@@ -17338,7 +17349,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
         <v>555</v>
       </c>
@@ -17361,7 +17372,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
         <v>555</v>
       </c>
@@ -17384,7 +17395,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
         <v>555</v>
       </c>
@@ -17407,7 +17418,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
         <v>555</v>
       </c>
@@ -17430,7 +17441,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
         <v>555</v>
       </c>
@@ -17453,7 +17464,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="7">
         <v>3</v>
@@ -17478,7 +17489,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
         <v>555</v>
       </c>
@@ -17501,7 +17512,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
         <v>555</v>
       </c>
@@ -17524,7 +17535,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
         <v>555</v>
       </c>
@@ -17547,7 +17558,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="7">
         <v>3</v>
@@ -17572,7 +17583,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="7">
         <v>4</v>
@@ -17591,7 +17602,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="7">
         <v>3</v>
@@ -17616,7 +17627,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
         <v>555</v>
       </c>
@@ -17639,7 +17650,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
         <v>555</v>
       </c>
@@ -17660,7 +17671,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>555</v>
       </c>
@@ -17683,7 +17694,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
         <v>555</v>
       </c>
@@ -17706,7 +17717,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
         <v>555</v>
       </c>
@@ -17729,7 +17740,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
         <v>555</v>
       </c>
@@ -17752,7 +17763,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
         <v>555</v>
       </c>
@@ -17775,7 +17786,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
         <v>555</v>
       </c>
@@ -17798,7 +17809,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
         <v>555</v>
       </c>
@@ -17821,7 +17832,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
         <v>555</v>
       </c>
@@ -17844,7 +17855,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
         <v>555</v>
       </c>
@@ -17867,7 +17878,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="408" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="7">
         <v>4</v>
@@ -17888,7 +17899,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="7">
         <v>1</v>
@@ -17913,7 +17924,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="7">
         <v>2</v>
@@ -17938,7 +17949,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
         <v>555</v>
       </c>
@@ -17961,7 +17972,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
         <v>555</v>
       </c>
@@ -17984,7 +17995,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
         <v>555</v>
       </c>
@@ -18007,7 +18018,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
         <v>555</v>
       </c>
@@ -18030,7 +18041,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
         <v>555</v>
       </c>
@@ -18053,7 +18064,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
         <v>555</v>
       </c>
@@ -18076,7 +18087,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
         <v>555</v>
       </c>
@@ -18099,7 +18110,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
         <v>555</v>
       </c>
@@ -18122,7 +18133,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
         <v>555</v>
       </c>
@@ -18145,7 +18156,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="7">
         <v>2</v>
@@ -18170,7 +18181,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
         <v>555</v>
       </c>
@@ -18193,7 +18204,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A349" s="5" t="s">
         <v>555</v>
       </c>
@@ -18216,7 +18227,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
         <v>555</v>
       </c>
@@ -18239,7 +18250,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A351" s="5" t="s">
         <v>555</v>
       </c>
@@ -18262,7 +18273,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A352" s="5" t="s">
         <v>555</v>
       </c>
@@ -18285,7 +18296,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
         <v>555</v>
       </c>
@@ -18308,7 +18319,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
         <v>555</v>
       </c>
@@ -18331,7 +18342,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
         <v>555</v>
       </c>
@@ -18354,7 +18365,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="7">
         <v>3</v>
@@ -18375,7 +18386,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="7">
         <v>3</v>
@@ -18396,7 +18407,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="7">
         <v>2</v>
@@ -18421,7 +18432,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
         <v>555</v>
       </c>
@@ -18444,7 +18455,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="7">
         <v>3</v>
@@ -18463,7 +18474,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
         <v>555</v>
       </c>
@@ -18484,7 +18495,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
         <v>555</v>
       </c>
@@ -18505,7 +18516,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
         <v>555</v>
       </c>
@@ -18526,7 +18537,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A364" s="5" t="s">
         <v>555</v>
       </c>
@@ -18547,7 +18558,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
         <v>555</v>
       </c>
@@ -18570,7 +18581,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
         <v>555</v>
       </c>
@@ -18591,7 +18602,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>555</v>
       </c>
@@ -18612,7 +18623,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
         <v>555</v>
       </c>
@@ -18635,7 +18646,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>555</v>
       </c>
@@ -18656,7 +18667,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
         <v>555</v>
       </c>
@@ -18679,7 +18690,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="5" t="s">
         <v>555</v>
       </c>
@@ -18702,7 +18713,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
         <v>555</v>
       </c>
@@ -18725,7 +18736,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
         <v>555</v>
       </c>
@@ -18748,7 +18759,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
         <v>555</v>
       </c>
@@ -18771,7 +18782,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" ht="270" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="7">
         <v>3</v>
@@ -18792,7 +18803,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="7">
         <v>3</v>
@@ -18813,7 +18824,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="7">
         <v>3</v>
@@ -18837,7 +18848,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="7">
         <v>2</v>
@@ -18862,7 +18873,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="7">
         <v>3</v>
@@ -18883,7 +18894,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="7">
         <v>2</v>
@@ -18908,7 +18919,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="7">
         <v>3</v>
@@ -18929,7 +18940,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="7">
         <v>3</v>
@@ -18950,7 +18961,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="7">
         <v>3</v>
@@ -18971,7 +18982,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="7">
         <v>2</v>
@@ -18996,7 +19007,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="7">
         <v>3</v>
@@ -19017,7 +19028,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="7">
         <v>3</v>
@@ -19038,7 +19049,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="7">
         <v>3</v>
@@ -19059,7 +19070,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="7">
         <v>2</v>
@@ -19084,7 +19095,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>555</v>
       </c>
@@ -19105,7 +19116,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="7">
         <v>1</v>
@@ -19130,7 +19141,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="7">
         <v>2</v>
@@ -19155,7 +19166,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
         <v>555</v>
       </c>
@@ -19178,7 +19189,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
         <v>555</v>
       </c>
@@ -19201,7 +19212,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
         <v>555</v>
       </c>
@@ -19224,7 +19235,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
         <v>555</v>
       </c>
@@ -19247,7 +19258,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
         <v>555</v>
       </c>
@@ -19270,7 +19281,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
         <v>555</v>
       </c>
@@ -19293,7 +19304,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="7">
         <v>2</v>
@@ -19318,7 +19329,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
         <v>555</v>
       </c>
@@ -19341,7 +19352,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
         <v>555</v>
       </c>
@@ -19364,7 +19375,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
         <v>555</v>
       </c>
@@ -19387,7 +19398,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="7">
         <v>2</v>
@@ -19412,7 +19423,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
         <v>555</v>
       </c>
@@ -19435,7 +19446,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
         <v>555</v>
       </c>
@@ -19458,7 +19469,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
         <v>555</v>
       </c>
@@ -19479,7 +19490,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
         <v>555</v>
       </c>
@@ -19500,7 +19511,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
         <v>555</v>
       </c>
@@ -19523,7 +19534,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
         <v>555</v>
       </c>
@@ -19546,7 +19557,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
         <v>555</v>
       </c>
@@ -19567,7 +19578,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A410" s="5" t="s">
         <v>555</v>
       </c>
@@ -19588,7 +19599,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A411" s="5" t="s">
         <v>555</v>
       </c>
@@ -19611,7 +19622,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A412" s="5" t="s">
         <v>555</v>
       </c>
@@ -19634,7 +19645,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>555</v>
       </c>
@@ -19657,7 +19668,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A414" s="5" t="s">
         <v>555</v>
       </c>
@@ -19678,7 +19689,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
         <v>555</v>
       </c>
@@ -19701,7 +19712,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
         <v>555</v>
       </c>
@@ -19722,7 +19733,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="7">
         <v>3</v>
@@ -19741,7 +19752,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="7">
         <v>3</v>
@@ -19762,7 +19773,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="7">
         <v>3</v>
@@ -19783,7 +19794,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="357" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" ht="398" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="7">
         <v>3</v>
@@ -19804,7 +19815,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="7">
         <v>2</v>
@@ -19829,7 +19840,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
         <v>555</v>
       </c>
@@ -19852,7 +19863,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
         <v>555</v>
       </c>
@@ -19875,7 +19886,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
         <v>555</v>
       </c>
@@ -19898,7 +19909,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A425" s="5" t="s">
         <v>555</v>
       </c>
@@ -19921,7 +19932,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A426" s="5" t="s">
         <v>555</v>
       </c>
@@ -19944,7 +19955,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
         <v>555</v>
       </c>
@@ -19967,7 +19978,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
         <v>555</v>
       </c>
@@ -19990,7 +20001,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A429" s="5" t="s">
         <v>555</v>
       </c>
@@ -20013,7 +20024,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
         <v>555</v>
       </c>
@@ -20036,7 +20047,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
         <v>555</v>
       </c>
@@ -20059,7 +20070,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
         <v>555</v>
       </c>
@@ -20082,7 +20093,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="7">
         <v>1</v>
@@ -20107,7 +20118,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="7">
         <v>2</v>
@@ -20132,7 +20143,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="7">
         <v>3</v>
@@ -20157,7 +20168,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
         <v>555</v>
       </c>
@@ -20180,7 +20191,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>555</v>
       </c>
@@ -20203,7 +20214,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
         <v>555</v>
       </c>
@@ -20226,7 +20237,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
         <v>555</v>
       </c>
@@ -20249,7 +20260,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
         <v>555</v>
       </c>
@@ -20272,7 +20283,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
         <v>555</v>
       </c>
@@ -20295,7 +20306,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
         <v>555</v>
       </c>
@@ -20318,7 +20329,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
         <v>555</v>
       </c>
@@ -20339,7 +20350,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
         <v>555</v>
       </c>
@@ -20360,7 +20371,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A445" s="5" t="s">
         <v>555</v>
       </c>
@@ -20381,7 +20392,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
         <v>555</v>
       </c>
@@ -20402,7 +20413,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="7">
         <v>4</v>
@@ -20423,7 +20434,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A448" s="5" t="s">
         <v>555</v>
       </c>
@@ -20446,7 +20457,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A449" s="5" t="s">
         <v>555</v>
       </c>
@@ -20469,7 +20480,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A450" s="5" t="s">
         <v>555</v>
       </c>
@@ -20492,7 +20503,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A451" s="5" t="s">
         <v>555</v>
       </c>
@@ -20515,7 +20526,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
         <v>555</v>
       </c>
@@ -20538,7 +20549,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
         <v>555</v>
       </c>
@@ -20561,7 +20572,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
         <v>555</v>
       </c>
@@ -20584,7 +20595,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A455" s="5" t="s">
         <v>555</v>
       </c>
@@ -20605,7 +20616,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="7">
         <v>4</v>
@@ -20626,7 +20637,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A457" s="5" t="s">
         <v>555</v>
       </c>
@@ -20649,7 +20660,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A458" s="5" t="s">
         <v>555</v>
       </c>
@@ -20672,7 +20683,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A459" s="5" t="s">
         <v>555</v>
       </c>
@@ -20695,7 +20706,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
         <v>555</v>
       </c>
@@ -20718,7 +20729,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
         <v>555</v>
       </c>
@@ -20741,7 +20752,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="7">
         <v>4</v>
@@ -20760,7 +20771,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A463" s="5" t="s">
         <v>555</v>
       </c>
@@ -20783,7 +20794,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
         <v>555</v>
       </c>
@@ -20806,7 +20817,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
         <v>555</v>
       </c>
@@ -20829,7 +20840,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
         <v>555</v>
       </c>
@@ -20850,7 +20861,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A467" s="5" t="s">
         <v>555</v>
       </c>
@@ -20871,7 +20882,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>555</v>
       </c>
@@ -20892,7 +20903,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="7">
         <v>4</v>
@@ -20913,7 +20924,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="7">
         <v>4</v>
@@ -20934,7 +20945,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="7">
         <v>3</v>
@@ -20959,7 +20970,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="7">
         <v>4</v>
@@ -20980,7 +20991,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A473" s="5" t="s">
         <v>555</v>
       </c>
@@ -21003,7 +21014,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A474" s="5" t="s">
         <v>555</v>
       </c>
@@ -21026,7 +21037,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A475" s="5" t="s">
         <v>555</v>
       </c>
@@ -21047,7 +21058,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
         <v>555</v>
       </c>
@@ -21070,7 +21081,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
         <v>555</v>
       </c>
@@ -21091,7 +21102,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
         <v>555</v>
       </c>
@@ -21112,7 +21123,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A479" s="5" t="s">
         <v>555</v>
       </c>
@@ -21133,7 +21144,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="7">
         <v>3</v>
@@ -21158,7 +21169,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A481" s="5" t="s">
         <v>555</v>
       </c>
@@ -21181,7 +21192,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="7">
         <v>4</v>
@@ -21202,7 +21213,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
         <v>555</v>
       </c>
@@ -21225,7 +21236,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
         <v>555</v>
       </c>
@@ -21248,7 +21259,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
         <v>555</v>
       </c>
@@ -21271,7 +21282,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
         <v>555</v>
       </c>
@@ -21294,7 +21305,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>555</v>
       </c>
@@ -21317,7 +21328,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
         <v>555</v>
       </c>
@@ -21340,7 +21351,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
         <v>555</v>
       </c>
@@ -21363,7 +21374,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
         <v>555</v>
       </c>
@@ -21386,7 +21397,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A491" s="5" t="s">
         <v>555</v>
       </c>
@@ -21409,7 +21420,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="7">
         <v>4</v>
@@ -21430,7 +21441,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A493" s="5" t="s">
         <v>555</v>
       </c>
@@ -21453,7 +21464,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A494" s="5" t="s">
         <v>555</v>
       </c>
@@ -21476,7 +21487,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
         <v>555</v>
       </c>
@@ -21499,7 +21510,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A496" s="5" t="s">
         <v>555</v>
       </c>
@@ -21522,7 +21533,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="497" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A497" s="5" t="s">
         <v>555</v>
       </c>
@@ -21545,7 +21556,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
         <v>555</v>
       </c>
@@ -21568,7 +21579,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A499" s="5" t="s">
         <v>555</v>
       </c>
@@ -21591,7 +21602,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="500" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A500" s="5" t="s">
         <v>555</v>
       </c>
@@ -21614,7 +21625,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="501" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A501" s="5" t="s">
         <v>555</v>
       </c>
@@ -21637,7 +21648,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
         <v>555</v>
       </c>
@@ -21660,7 +21671,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="503" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>555</v>
       </c>
@@ -21683,7 +21694,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="504" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
         <v>555</v>
       </c>
@@ -21706,7 +21717,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="505" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A505" s="5" t="s">
         <v>555</v>
       </c>
@@ -21727,7 +21738,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="506" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A506" s="5" t="s">
         <v>555</v>
       </c>
@@ -21750,7 +21761,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="7">
         <v>4</v>
@@ -21771,7 +21782,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="7">
         <v>2</v>
@@ -21796,7 +21807,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="7">
         <v>3</v>
@@ -21821,7 +21832,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="510" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="7">
         <v>4</v>
@@ -21842,7 +21853,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="511" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="7">
         <v>4</v>
@@ -21863,7 +21874,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="7">
         <v>4</v>
@@ -21884,7 +21895,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="7">
         <v>4</v>
@@ -21905,7 +21916,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="7">
         <v>4</v>
@@ -21926,7 +21937,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="7">
         <v>4</v>
@@ -21947,7 +21958,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="7">
         <v>4</v>
@@ -21968,7 +21979,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="7">
         <v>4</v>
@@ -21989,7 +22000,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="7">
         <v>4</v>
@@ -22010,7 +22021,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="7">
         <v>4</v>
@@ -22031,7 +22042,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="7">
         <v>4</v>
@@ -22052,7 +22063,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="7">
         <v>4</v>
@@ -22073,7 +22084,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="7">
         <v>4</v>
@@ -22094,7 +22105,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="7">
         <v>3</v>
@@ -22119,7 +22130,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="7">
         <v>4</v>
@@ -22140,7 +22151,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="7">
         <v>4</v>
@@ -22161,7 +22172,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="7">
         <v>4</v>
@@ -22182,7 +22193,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="7">
         <v>4</v>
@@ -22203,7 +22214,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="7">
         <v>4</v>
@@ -22224,7 +22235,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="7">
         <v>4</v>
@@ -22245,7 +22256,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="7">
         <v>4</v>
@@ -22266,7 +22277,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="7">
         <v>4</v>
@@ -22287,7 +22298,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="7">
         <v>4</v>
@@ -22308,7 +22319,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="7">
         <v>3</v>
@@ -22333,7 +22344,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="7">
         <v>4</v>
@@ -22354,7 +22365,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="7">
         <v>4</v>
@@ -22375,7 +22386,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" ht="314" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="7">
         <v>4</v>
@@ -22396,7 +22407,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="7">
         <v>4</v>
@@ -22417,7 +22428,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="7">
         <v>4</v>
@@ -22438,7 +22449,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="7">
         <v>3</v>
@@ -22463,7 +22474,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="7">
         <v>4</v>
@@ -22484,7 +22495,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="7">
         <v>4</v>
@@ -22505,7 +22516,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="7">
         <v>4</v>
@@ -22526,7 +22537,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="7">
         <v>3</v>
@@ -22551,7 +22562,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="7">
         <v>4</v>
@@ -22572,7 +22583,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="7">
         <v>4</v>
@@ -22593,7 +22604,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="7">
         <v>4</v>
@@ -22614,7 +22625,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="7">
         <v>4</v>
@@ -22635,7 +22646,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="7">
         <v>4</v>
@@ -22656,7 +22667,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="7">
         <v>4</v>
@@ -22677,7 +22688,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="7">
         <v>4</v>
@@ -22698,7 +22709,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="7">
         <v>4</v>
@@ -22719,7 +22730,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="7">
         <v>4</v>
@@ -22740,7 +22751,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="7">
         <v>4</v>
@@ -22761,7 +22772,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="7">
         <v>4</v>
@@ -22782,7 +22793,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="7">
         <v>3</v>
@@ -22807,7 +22818,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" ht="300" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="7">
         <v>4</v>
@@ -22828,7 +22839,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="7">
         <v>4</v>
@@ -22849,7 +22860,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="7">
         <v>4</v>
@@ -22870,7 +22881,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="7">
         <v>3</v>
@@ -22888,14 +22899,14 @@
       <c r="H559" s="10" t="s">
         <v>2071</v>
       </c>
-      <c r="I559" s="52" t="s">
+      <c r="I559" s="51" t="s">
         <v>2702</v>
       </c>
       <c r="J559" s="12" t="s">
         <v>2703</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="7">
         <v>4</v>
@@ -22916,7 +22927,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="7">
         <v>4</v>
@@ -22937,7 +22948,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="7">
         <v>4</v>
@@ -22958,7 +22969,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="7">
         <v>4</v>
@@ -22979,7 +22990,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="7">
         <v>4</v>
@@ -23000,7 +23011,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="7">
         <v>3</v>
@@ -23018,14 +23029,14 @@
       <c r="H565" s="10" t="s">
         <v>2076</v>
       </c>
-      <c r="I565" s="52" t="s">
+      <c r="I565" s="51" t="s">
         <v>2709</v>
       </c>
       <c r="J565" s="12" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="7">
         <v>4</v>
@@ -23046,7 +23057,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="7">
         <v>4</v>
@@ -23067,7 +23078,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="7">
         <v>4</v>
@@ -23088,7 +23099,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="7">
         <v>4</v>
@@ -23109,7 +23120,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="7">
         <v>4</v>
@@ -23130,7 +23141,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="7">
         <v>3</v>
@@ -23142,20 +23153,20 @@
       <c r="E571" s="38" t="s">
         <v>1131</v>
       </c>
-      <c r="G571" s="46" t="s">
+      <c r="G571" s="45" t="s">
         <v>2854</v>
       </c>
       <c r="H571" s="10" t="s">
         <v>2082</v>
       </c>
-      <c r="I571" s="52" t="s">
+      <c r="I571" s="51" t="s">
         <v>2716</v>
       </c>
       <c r="J571" s="12" t="s">
         <v>2717</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="7">
         <v>4</v>
@@ -23176,7 +23187,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="7">
         <v>4</v>
@@ -23197,7 +23208,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="7">
         <v>4</v>
@@ -23218,7 +23229,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="7">
         <v>4</v>
@@ -23239,7 +23250,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="7">
         <v>4</v>
@@ -23260,7 +23271,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="7">
         <v>4</v>
@@ -23281,7 +23292,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="7">
         <v>4</v>
@@ -23302,7 +23313,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="7">
         <v>3</v>
@@ -23320,14 +23331,14 @@
       <c r="H579" s="10" t="s">
         <v>1951</v>
       </c>
-      <c r="I579" s="52" t="s">
+      <c r="I579" s="51" t="s">
         <v>2725</v>
       </c>
       <c r="J579" s="11" t="s">
         <v>2726</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="7">
         <v>4</v>
@@ -23348,7 +23359,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="7">
         <v>4</v>
@@ -23369,7 +23380,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="7">
         <v>4</v>
@@ -23390,7 +23401,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="7">
         <v>4</v>
@@ -23411,7 +23422,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="7">
         <v>3</v>
@@ -23429,14 +23440,14 @@
       <c r="H584" s="10" t="s">
         <v>1957</v>
       </c>
-      <c r="I584" s="52" t="s">
+      <c r="I584" s="51" t="s">
         <v>2731</v>
       </c>
       <c r="J584" s="11" t="s">
         <v>2732</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" ht="225" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="7">
         <v>4</v>
@@ -23457,7 +23468,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="7">
         <v>4</v>
@@ -23478,7 +23489,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="7">
         <v>3</v>
@@ -23496,14 +23507,14 @@
       <c r="H587" s="10" t="s">
         <v>1961</v>
       </c>
-      <c r="I587" s="52" t="s">
+      <c r="I587" s="51" t="s">
         <v>2735</v>
       </c>
       <c r="J587" s="11" t="s">
         <v>2736</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="7">
         <v>4</v>
@@ -23524,7 +23535,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="7">
         <v>4</v>
@@ -23545,7 +23556,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="7">
         <v>4</v>
@@ -23566,7 +23577,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="7">
         <v>4</v>
@@ -23587,7 +23598,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="7">
         <v>4</v>
@@ -23608,7 +23619,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="7">
         <v>4</v>
@@ -23629,7 +23640,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="7">
         <v>4</v>
@@ -23650,7 +23661,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="595" spans="1:10" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" ht="342" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="7">
         <v>4</v>
@@ -23671,7 +23682,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="7">
         <v>4</v>
@@ -23692,7 +23703,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="7">
         <v>4</v>
@@ -23713,7 +23724,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="7">
         <v>4</v>
@@ -23734,7 +23745,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="7">
         <v>3</v>
@@ -23755,11 +23766,11 @@
       <c r="I599" s="8" t="s">
         <v>2748</v>
       </c>
-      <c r="J599" s="50" t="s">
+      <c r="J599" s="49" t="s">
         <v>2749</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="7">
         <v>4</v>
@@ -23780,7 +23791,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="7">
         <v>4</v>
@@ -23801,7 +23812,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="7">
         <v>3</v>
@@ -23826,7 +23837,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="7">
         <v>4</v>
@@ -23847,7 +23858,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="7">
         <v>4</v>
@@ -23868,7 +23879,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="7">
         <v>1</v>
@@ -23893,7 +23904,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="7">
         <v>2</v>
@@ -23918,7 +23929,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="607" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="7">
         <v>3</v>
@@ -23939,7 +23950,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A608" s="5" t="s">
         <v>555</v>
       </c>
@@ -23962,7 +23973,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A609" s="5" t="s">
         <v>555</v>
       </c>
@@ -23985,7 +23996,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
         <v>555</v>
       </c>
@@ -24008,7 +24019,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A611" s="5" t="s">
         <v>555</v>
       </c>
@@ -24031,7 +24042,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A612" s="5" t="s">
         <v>555</v>
       </c>
@@ -24054,7 +24065,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="7">
         <v>1</v>
@@ -24079,7 +24090,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="7">
         <v>2</v>
@@ -24104,7 +24115,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="7">
         <v>3</v>
@@ -24125,7 +24136,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="6">
         <v>2</v>
@@ -24150,7 +24161,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="6">
         <v>3</v>
@@ -24171,7 +24182,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="6">
         <v>3</v>
@@ -24192,7 +24203,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="6">
         <v>3</v>
@@ -24213,7 +24224,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="6">
         <v>3</v>
@@ -24234,7 +24245,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="6">
         <v>2</v>
@@ -24259,7 +24270,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="6">
         <v>3</v>
@@ -24280,7 +24291,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="6">
         <v>3</v>
@@ -24301,7 +24312,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="6">
         <v>2</v>
@@ -24326,7 +24337,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="6">
         <v>3</v>
@@ -24347,7 +24358,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="6">
         <v>3</v>
@@ -24368,7 +24379,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="6">
         <v>2</v>
@@ -24393,7 +24404,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="6">
         <v>3</v>
@@ -24414,7 +24425,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="629" spans="1:10" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="6">
         <v>3</v>
@@ -24435,7 +24446,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="630" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="6">
         <v>3</v>
@@ -24456,7 +24467,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="631" spans="1:10" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" ht="270" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="6">
         <v>3</v>
@@ -24477,7 +24488,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="632" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="6">
         <v>3</v>
@@ -24498,7 +24509,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="633" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="6">
         <v>3</v>
@@ -24519,7 +24530,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="6">
         <v>2</v>
@@ -24544,7 +24555,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="635" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="6">
         <v>3</v>
@@ -24565,7 +24576,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="636" spans="1:10" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="6">
         <v>3</v>
@@ -24586,7 +24597,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="6">
         <v>2</v>
@@ -24611,7 +24622,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="6">
         <v>3</v>
@@ -24632,7 +24643,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="639" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" ht="91" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="6">
         <v>3</v>
@@ -24653,7 +24664,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="6">
         <v>2</v>
@@ -24678,7 +24689,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="641" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="6">
         <v>3</v>
@@ -24699,7 +24710,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="6">
         <v>2</v>
@@ -24724,7 +24735,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="643" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" ht="39" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="6">
         <v>3</v>
@@ -24745,7 +24756,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="644" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="6">
         <v>3</v>
@@ -24766,7 +24777,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="645" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" ht="180" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="6">
         <v>3</v>
@@ -24787,7 +24798,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="646" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="6">
         <v>3</v>
@@ -24808,7 +24819,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="647" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" ht="65" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="6">
         <v>3</v>
@@ -24829,7 +24840,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="6">
         <v>3</v>
@@ -24850,7 +24861,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
       <c r="B649" s="6">
         <v>2</v>
@@ -24875,7 +24886,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="650" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
       <c r="B650" s="6">
         <v>3</v>
@@ -24896,7 +24907,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="651" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" ht="52" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
       <c r="B651" s="6">
         <v>3</v>
@@ -24917,7 +24928,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="652" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" ht="52" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
       <c r="B652" s="6">
         <v>3</v>
@@ -24938,7 +24949,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="653" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" ht="65" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
       <c r="B653" s="6">
         <v>3</v>
@@ -24959,7 +24970,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
       <c r="B654" s="6">
         <v>2</v>
@@ -24984,7 +24995,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="655" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" ht="78" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
       <c r="B655" s="6">
         <v>3</v>
@@ -25005,7 +25016,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="656" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" ht="52" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
       <c r="B656" s="6">
         <v>3</v>
@@ -25026,7 +25037,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
       <c r="B657" s="6">
         <v>1</v>
@@ -25051,7 +25062,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
       <c r="B658" s="6">
         <v>2</v>
@@ -25076,7 +25087,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="659" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
       <c r="B659" s="6">
         <v>3</v>
@@ -25097,7 +25108,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="660" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" ht="78" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
       <c r="B660" s="6">
         <v>3</v>
@@ -25118,7 +25129,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="661" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" ht="65" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
       <c r="B661" s="6">
         <v>3</v>
@@ -25139,7 +25150,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="662" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" ht="39" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
       <c r="B662" s="6">
         <v>3</v>
@@ -25160,7 +25171,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="663" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" ht="26" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
       <c r="B663" s="6">
         <v>3</v>
@@ -25181,7 +25192,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="664" spans="1:10" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" ht="78" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
       <c r="B664" s="6">
         <v>3</v>
@@ -25202,7 +25213,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
       <c r="B665" s="6">
         <v>1</v>
@@ -25227,7 +25238,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
       <c r="B666" s="6">
         <v>2</v>
@@ -25246,7 +25257,7 @@
       </c>
       <c r="J666" s="5"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
       <c r="B667" s="6">
         <v>3</v>
@@ -25271,7 +25282,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="306" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" ht="342" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
       <c r="B668" s="6">
         <v>4</v>
@@ -25292,7 +25303,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" ht="165" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
       <c r="B669" s="6">
         <v>4</v>
@@ -25313,7 +25324,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="670" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" ht="91" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
       <c r="B670" s="6">
         <v>4</v>
@@ -25334,7 +25345,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
       <c r="B671" s="6">
         <v>2</v>
@@ -25355,7 +25366,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
       <c r="B672" s="6">
         <v>3</v>
@@ -25380,7 +25391,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="673" spans="1:10" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" ht="285" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
       <c r="B673" s="6">
         <v>4</v>
@@ -25401,7 +25412,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="6">
         <v>3</v>
@@ -25426,7 +25437,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="675" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
       <c r="B675" s="6">
         <v>4</v>
@@ -25447,7 +25458,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
       <c r="B676" s="6">
         <v>3</v>
@@ -25470,7 +25481,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="677" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
       <c r="B677" s="6">
         <v>4</v>
@@ -25491,7 +25502,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
       <c r="B678" s="6">
         <v>3</v>
@@ -25516,7 +25527,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="679" spans="1:10" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
       <c r="B679" s="6">
         <v>4</v>
@@ -25537,7 +25548,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
       <c r="B680" s="6">
         <v>3</v>
@@ -25562,7 +25573,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="681" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" ht="65" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
       <c r="B681" s="6">
         <v>4</v>
@@ -25583,7 +25594,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
       <c r="B682" s="6">
         <v>3</v>
@@ -25608,7 +25619,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="683" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" ht="52" x14ac:dyDescent="0.2">
       <c r="A683" s="5" t="s">
         <v>555</v>
       </c>
@@ -25631,75 +25642,75 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C684" s="15"/>
       <c r="D684" s="15"/>
-      <c r="I684" s="53"/>
-      <c r="J684" s="54"/>
-    </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I684" s="52"/>
+      <c r="J684" s="53"/>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C685" s="15"/>
       <c r="D685" s="15"/>
-      <c r="I685" s="53"/>
-      <c r="J685" s="54"/>
-    </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I685" s="52"/>
+      <c r="J685" s="53"/>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C686" s="15"/>
       <c r="D686" s="15"/>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C687" s="15"/>
       <c r="D687" s="15"/>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C688" s="15"/>
       <c r="D688" s="15"/>
     </row>
-    <row r="689" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C689" s="15"/>
       <c r="D689" s="15"/>
     </row>
-    <row r="690" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C690" s="15"/>
       <c r="D690" s="15"/>
     </row>
-    <row r="691" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C691" s="15"/>
       <c r="D691" s="15"/>
     </row>
-    <row r="692" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C692" s="15"/>
       <c r="D692" s="15"/>
     </row>
-    <row r="693" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C693" s="15"/>
       <c r="D693" s="15"/>
     </row>
-    <row r="694" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C694" s="15"/>
       <c r="D694" s="15"/>
     </row>
-    <row r="695" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C695" s="15"/>
       <c r="D695" s="15"/>
     </row>
-    <row r="696" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C696" s="15"/>
       <c r="D696" s="15"/>
     </row>
-    <row r="697" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C697" s="15"/>
       <c r="D697" s="15"/>
     </row>
-    <row r="698" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C698" s="15"/>
       <c r="D698" s="15"/>
     </row>
-    <row r="699" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C699" s="15"/>
       <c r="D699" s="15"/>
     </row>
-    <row r="700" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C700" s="15"/>
       <c r="D700" s="15"/>
     </row>
